--- a/funciones/temp/temp.xlsx
+++ b/funciones/temp/temp.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orlan\Desktop\"/>
@@ -24,12 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
   <si>
-    <t>Orlando Jose</t>
-  </si>
-  <si>
-    <t>Perez Malave</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>mariagouver@gmail.com</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -381,9 +372,6 @@
     <t>Apellido</t>
   </si>
   <si>
-    <t>asdasdqd@dasd.com</t>
-  </si>
-  <si>
     <t>Carpintero</t>
   </si>
   <si>
@@ -396,7 +384,19 @@
     <t>asdf</t>
   </si>
   <si>
-    <t>orlando_315@hotmail.com</t>
+    <t>TELEFONO 2</t>
+  </si>
+  <si>
+    <t>mariagouver@gmail.c</t>
+  </si>
+  <si>
+    <t>asdasdqd@das.com</t>
+  </si>
+  <si>
+    <t>orlaos315@hotmail.om</t>
+  </si>
+  <si>
+    <t>Menor</t>
   </si>
 </sst>
 </file>
@@ -786,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,203 +800,198 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="2"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="1025" width="10.5703125"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="1026" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2">
+        <v>24442</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>203363722</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
       </c>
       <c r="F2">
         <v>4121766533</v>
       </c>
-      <c r="G2" s="2">
-        <v>33913</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="2">
+        <v>42313</v>
+      </c>
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2">
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3">
-        <v>24499712</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
       </c>
       <c r="F3">
         <v>421213332</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>33913</v>
       </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>20332343</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
         <v>115</v>
       </c>
-      <c r="L3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4">
-        <v>203323233</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>3123144</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>31083</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" t="s">
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
         <v>118</v>
       </c>
-      <c r="C5">
-        <v>31231231</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="O5" t="s">
         <v>119</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2423423423</v>
-      </c>
-      <c r="G5" s="2">
-        <v>31083</v>
-      </c>
-      <c r="H5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" t="s">
-        <v>123</v>
+      <c r="P5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId4"/>
@@ -1020,10 +1015,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1114,13 +1109,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1142,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1176,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1369,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,7 +1391,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,7 +1402,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" s="7"/>
     </row>
@@ -1496,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1784,10 +1779,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1795,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1803,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1819,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1827,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1835,7 +1830,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1843,7 +1838,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,7 +1846,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1859,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1867,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1875,7 +1870,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1891,7 +1886,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1899,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1907,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1915,7 +1910,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1923,7 +1918,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="7"/>
     </row>
@@ -1940,7 +1935,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1948,7 +1943,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,7 +1959,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1972,7 +1967,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,7 +1983,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
